--- a/backend-python/general_document/装箱配码模板.xlsx
+++ b/backend-python/general_document/装箱配码模板.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>健诚鞋业集团有限公司</t>
   </si>
@@ -40,13 +40,7 @@
     <t>客户</t>
   </si>
   <si>
-    <t>流程号</t>
-  </si>
-  <si>
     <t>工厂型号</t>
-  </si>
-  <si>
-    <t>西班牙编号</t>
   </si>
   <si>
     <t>客户型号</t>
@@ -55,19 +49,13 @@
     <t>颜色</t>
   </si>
   <si>
-    <t>数量</t>
+    <t>商标：</t>
   </si>
   <si>
     <t>配码</t>
   </si>
   <si>
-    <t>商标：</t>
-  </si>
-  <si>
     <t>配码名称</t>
-  </si>
-  <si>
-    <t>合计：</t>
   </si>
   <si>
     <t>后处理：</t>
@@ -89,7 +77,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,19 +93,26 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -135,65 +130,23 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -338,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,12 +300,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAEFA9F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -538,7 +485,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -567,36 +514,6 @@
       </left>
       <right style="thin">
         <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -724,162 +641,162 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -888,83 +805,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1286,92 +1155,50 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="5"/>
+  <cols>
+    <col min="6" max="6" width="6.18181818181818" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:21">
+    <row r="1" ht="15" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
-    <row r="4" ht="17.5" spans="1:21">
+    <row r="4" ht="17.5" spans="1:6">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -1380,177 +1207,64 @@
       <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="8" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="33" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" ht="15" spans="1:6">
+      <c r="A8" s="20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="13"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="35"/>
-    </row>
-    <row r="7" ht="15" spans="1:21">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="36"/>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-    </row>
-    <row r="9" ht="15" spans="1:21">
-      <c r="A9" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="A3:U3"/>
-    <mergeCell ref="H4:T4"/>
-    <mergeCell ref="A8:U8"/>
-    <mergeCell ref="A9:U9"/>
+  <mergeCells count="6">
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
   </mergeCells>
-  <conditionalFormatting sqref="C6">
+  <conditionalFormatting sqref="B6">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="C6">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
